--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/BCD/20/seed5/result_data_RandomForest.xlsx
@@ -480,7 +480,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.124099999999993</v>
+        <v>-9.024199999999999</v>
       </c>
     </row>
     <row r="4">
@@ -564,7 +564,7 @@
         <v>-11.36</v>
       </c>
       <c r="D9" t="n">
-        <v>-8.522499999999996</v>
+        <v>-8.683999999999992</v>
       </c>
     </row>
     <row r="10">
@@ -586,10 +586,10 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>6.764000000000001</v>
+        <v>6.834700000000002</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.5448</v>
+        <v>-11.7758</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.784299999999999</v>
+        <v>4.674599999999997</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -620,7 +620,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.227999999999994</v>
+        <v>-8.313299999999996</v>
       </c>
     </row>
     <row r="14">
@@ -634,7 +634,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.517299999999995</v>
+        <v>-8.385799999999996</v>
       </c>
     </row>
     <row r="15">
@@ -642,7 +642,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.2349</v>
+        <v>5.826800000000002</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -704,7 +704,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.105899999999998</v>
+        <v>-8.625099999999998</v>
       </c>
     </row>
     <row r="20">
@@ -732,7 +732,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.468099999999993</v>
+        <v>-8.258200000000002</v>
       </c>
     </row>
     <row r="22">
@@ -746,7 +746,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.6754</v>
+        <v>-7.508499999999997</v>
       </c>
     </row>
     <row r="23">
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.9894</v>
+        <v>-12.08940000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -774,7 +774,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.776799999999995</v>
+        <v>-7.713199999999995</v>
       </c>
     </row>
     <row r="25">
@@ -802,7 +802,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.868499999999996</v>
+        <v>-7.870999999999998</v>
       </c>
     </row>
     <row r="27">
@@ -810,7 +810,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.652400000000003</v>
+        <v>5.707500000000001</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -824,10 +824,10 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>5.820499999999995</v>
+        <v>6.105599999999996</v>
       </c>
       <c r="C28" t="n">
-        <v>-13.1637</v>
+        <v>-13.0577</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.568799999999999</v>
+        <v>4.661199999999997</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -880,10 +880,10 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.522999999999996</v>
+        <v>6.659899999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>-11.7022</v>
+        <v>-11.4788</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.75650000000001</v>
+        <v>-11.88280000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -936,10 +936,10 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.621099999999998</v>
+        <v>9.522100000000002</v>
       </c>
       <c r="C36" t="n">
-        <v>-11.99860000000001</v>
+        <v>-11.93770000000001</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -953,7 +953,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.2226</v>
+        <v>-13.33600000000001</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -964,13 +964,13 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>6.693300000000002</v>
+        <v>6.446100000000001</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.808800000000003</v>
+        <v>-7.624100000000003</v>
       </c>
     </row>
     <row r="39">
@@ -1012,7 +1012,7 @@
         <v>-14.21</v>
       </c>
       <c r="D41" t="n">
-        <v>-8.242100000000001</v>
+        <v>-8.142899999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-13.5785</v>
+        <v>-12.49110000000001</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1076,7 +1076,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>6.325000000000006</v>
+        <v>6.217099999999999</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1121,7 +1121,7 @@
         <v>4.95</v>
       </c>
       <c r="C49" t="n">
-        <v>-13.48609999999998</v>
+        <v>-13.40049999999999</v>
       </c>
       <c r="D49" t="n">
         <v>-9.210000000000001</v>
@@ -1166,7 +1166,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.7964</v>
+        <v>-7.811900000000003</v>
       </c>
     </row>
     <row r="53">
@@ -1188,10 +1188,10 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>5.977500000000003</v>
+        <v>5.197400000000004</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.4435</v>
+        <v>-14.0005</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1202,7 +1202,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>5.464599999999999</v>
+        <v>5.184999999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1216,13 +1216,13 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.5526</v>
+        <v>5.829800000000001</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-7.969899999999995</v>
+        <v>-7.902600000000002</v>
       </c>
     </row>
     <row r="57">
@@ -1370,7 +1370,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.676099999999995</v>
+        <v>5.403599999999996</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1398,7 +1398,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.499699999999994</v>
+        <v>5.343899999999996</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1432,7 +1432,7 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.335199999999994</v>
+        <v>-7.208599999999994</v>
       </c>
     </row>
     <row r="72">
@@ -1440,13 +1440,13 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.578800000000002</v>
+        <v>6.498299999999996</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.466399999999997</v>
+        <v>-7.080099999999998</v>
       </c>
     </row>
     <row r="73">
@@ -1454,7 +1454,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>9.113400000000006</v>
+        <v>9.256100000000004</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1527,10 +1527,10 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-12.14070000000001</v>
+        <v>-12.95820000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.355299999999996</v>
+        <v>-8.310500000000001</v>
       </c>
     </row>
     <row r="79">
@@ -1555,7 +1555,7 @@
         <v>11.21</v>
       </c>
       <c r="C80" t="n">
-        <v>-12.0767</v>
+        <v>-11.81530000000001</v>
       </c>
       <c r="D80" t="n">
         <v>-6.63</v>
@@ -1594,13 +1594,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.894099999999997</v>
+        <v>6.013299999999997</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.767599999999998</v>
+        <v>-8.8398</v>
       </c>
     </row>
     <row r="84">
@@ -1628,7 +1628,7 @@
         <v>-13.1</v>
       </c>
       <c r="D85" t="n">
-        <v>-9.137999999999998</v>
+        <v>-8.966899999999999</v>
       </c>
     </row>
     <row r="86">
@@ -1636,13 +1636,13 @@
         <v>-22.27</v>
       </c>
       <c r="B86" t="n">
-        <v>5.5563</v>
+        <v>5.869000000000002</v>
       </c>
       <c r="C86" t="n">
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.937900000000002</v>
+        <v>-7.957900000000003</v>
       </c>
     </row>
     <row r="87">
@@ -1698,7 +1698,7 @@
         <v>-10.11</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.189799999999994</v>
+        <v>-7.108199999999991</v>
       </c>
     </row>
     <row r="91">
@@ -1706,7 +1706,7 @@
         <v>-21.82</v>
       </c>
       <c r="B91" t="n">
-        <v>5.134399999999996</v>
+        <v>4.842799999999999</v>
       </c>
       <c r="C91" t="n">
         <v>-12.06</v>
@@ -1734,7 +1734,7 @@
         <v>-21.49</v>
       </c>
       <c r="B93" t="n">
-        <v>5.474900000000002</v>
+        <v>5.431200000000005</v>
       </c>
       <c r="C93" t="n">
         <v>-10.09</v>
@@ -1782,7 +1782,7 @@
         <v>-10.65</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.586399999999992</v>
+        <v>-8.385299999999992</v>
       </c>
     </row>
     <row r="97">
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-10.9617</v>
+        <v>-11.5237</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1818,10 +1818,10 @@
         <v>-21.32</v>
       </c>
       <c r="B99" t="n">
-        <v>6.406900000000003</v>
+        <v>6.413800000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.25700000000001</v>
+        <v>-11.99570000000001</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1835,7 +1835,7 @@
         <v>4.73</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.1924</v>
+        <v>-11.9709</v>
       </c>
       <c r="D100" t="n">
         <v>-9.33</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.47930000000001</v>
+        <v>-13.1865</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1880,7 +1880,7 @@
         <v>-14.32</v>
       </c>
       <c r="D103" t="n">
-        <v>-8.025999999999998</v>
+        <v>-8.4125</v>
       </c>
     </row>
     <row r="104">
@@ -1888,7 +1888,7 @@
         <v>-19.85</v>
       </c>
       <c r="B104" t="n">
-        <v>9.615700000000002</v>
+        <v>9.3932</v>
       </c>
       <c r="C104" t="n">
         <v>-11.07</v>
@@ -1902,7 +1902,7 @@
         <v>-20.36</v>
       </c>
       <c r="B105" t="n">
-        <v>8.189000000000004</v>
+        <v>8.488700000000001</v>
       </c>
       <c r="C105" t="n">
         <v>-12</v>
